--- a/App/backend/excel_to_databases/all_blogposts.xlsx
+++ b/App/backend/excel_to_databases/all_blogposts.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">all_tags</t>
   </si>
   <si>
-    <t xml:space="preserve">./assets/images/uploads/bulk_blogposts/images/1.png</t>
+    <t xml:space="preserve">1.png</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -115,23 +115,7 @@
     <t xml:space="preserve">fdfs</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_blogposts/images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2.png</t>
-    </r>
+    <t xml:space="preserve">2.png</t>
   </si>
   <si>
     <t xml:space="preserve">s</t>
@@ -152,23 +136,7 @@
     <t xml:space="preserve">fg</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_blogposts/images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.png</t>
-    </r>
+    <t xml:space="preserve">3.png</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
@@ -183,23 +151,7 @@
     <t xml:space="preserve">fds</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_blogposts/images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4.png</t>
-    </r>
+    <t xml:space="preserve">4.png</t>
   </si>
   <si>
     <t xml:space="preserve">gr</t>
@@ -211,23 +163,7 @@
     <t xml:space="preserve">ddd</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">./assets/images/uploads/bulk_blogposts/images/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5.png</t>
-    </r>
+    <t xml:space="preserve">5.png</t>
   </si>
   <si>
     <t xml:space="preserve">g</t>
@@ -298,7 +234,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;&quot;($&quot;#,##0.00\);\-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -327,11 +263,6 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -388,7 +319,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,7 +346,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.86"/>
   </cols>
@@ -662,7 +593,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -726,7 +657,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -766,7 +697,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
